--- a/downloads/data/bnr-cvd-2023-table6.xlsx
+++ b/downloads/data/bnr-cvd-2023-table6.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="96" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="121" uniqueCount="20">
   <si>
     <t>Incidence Rate Ratio</t>
   </si>
@@ -68,6 +68,12 @@
   <si>
     <t xml:space="preserve">  2012-2013 (vs. 2010-11)</t>
   </si>
+  <si>
+    <t>Table 6. CVD Incidence Rate Ratios (2010 to 2023) for Hospital Events</t>
+  </si>
+  <si>
+    <t>Prepared by Ian Hambleton on 2025-11-22, for the Barbados National Registry</t>
+  </si>
 </sst>
 </file>
 
@@ -76,7 +82,795 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="789">
+  <fonts count="986">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -3242,7 +4036,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="789">
+  <borders count="986">
     <border>
       <left/>
       <right/>
@@ -8766,11 +9560,1390 @@
       <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="789">
+  <cellXfs count="986">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -11921,6 +14094,794 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="788" fillId="0" borderId="788" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="0" borderId="789" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="0" borderId="790" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="0" borderId="791" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="792" fillId="0" borderId="792" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="793" fillId="0" borderId="793" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="794" fillId="0" borderId="794" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="0" borderId="795" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="0" borderId="796" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="0" borderId="797" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="798" fillId="0" borderId="798" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="799" fillId="0" borderId="799" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="800" fillId="0" borderId="800" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="801" fillId="0" borderId="801" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="802" fillId="0" borderId="802" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="803" fillId="0" borderId="803" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="804" fillId="0" borderId="804" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="805" fillId="0" borderId="805" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="806" fillId="0" borderId="806" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="807" fillId="0" borderId="807" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="808" fillId="0" borderId="808" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="809" fillId="0" borderId="809" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="810" fillId="0" borderId="810" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="811" fillId="0" borderId="811" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="812" fillId="0" borderId="812" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="813" fillId="0" borderId="813" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="814" fillId="0" borderId="814" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="815" fillId="0" borderId="815" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="816" fillId="0" borderId="816" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="817" fillId="0" borderId="817" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="818" fillId="0" borderId="818" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="819" fillId="0" borderId="819" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="820" fillId="0" borderId="820" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="821" fillId="0" borderId="821" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="822" fillId="0" borderId="822" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="823" fillId="0" borderId="823" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="824" fillId="0" borderId="824" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="825" fillId="0" borderId="825" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="826" fillId="0" borderId="826" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="827" fillId="0" borderId="827" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="828" fillId="0" borderId="828" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="829" fillId="0" borderId="829" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="830" fillId="0" borderId="830" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="831" fillId="0" borderId="831" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="832" fillId="0" borderId="832" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="833" fillId="0" borderId="833" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="834" fillId="0" borderId="834" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="835" fillId="0" borderId="835" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="836" fillId="0" borderId="836" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="837" fillId="0" borderId="837" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="0" borderId="838" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="0" borderId="839" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="0" borderId="840" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="841" fillId="0" borderId="841" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="842" fillId="0" borderId="842" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="843" fillId="0" borderId="843" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="844" fillId="0" borderId="844" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="845" fillId="0" borderId="845" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="846" fillId="0" borderId="846" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="847" fillId="0" borderId="847" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="848" fillId="0" borderId="848" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="849" fillId="0" borderId="849" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="850" fillId="0" borderId="850" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="851" fillId="0" borderId="851" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="852" fillId="0" borderId="852" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="853" fillId="0" borderId="853" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="854" fillId="0" borderId="854" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="855" fillId="0" borderId="855" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="856" fillId="0" borderId="856" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="857" fillId="0" borderId="857" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="858" fillId="0" borderId="858" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="859" fillId="0" borderId="859" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="860" fillId="0" borderId="860" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="861" fillId="0" borderId="861" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="862" fillId="0" borderId="862" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="863" fillId="0" borderId="863" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="864" fillId="0" borderId="864" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="865" fillId="0" borderId="865" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="866" fillId="0" borderId="866" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="867" fillId="0" borderId="867" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="868" fillId="0" borderId="868" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="869" fillId="0" borderId="869" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="870" fillId="0" borderId="870" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="871" fillId="0" borderId="871" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="872" fillId="0" borderId="872" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="873" fillId="0" borderId="873" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="874" fillId="0" borderId="874" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="875" fillId="0" borderId="875" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="876" fillId="0" borderId="876" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="877" fillId="0" borderId="877" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="878" fillId="0" borderId="878" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="879" fillId="0" borderId="879" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="880" fillId="0" borderId="880" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="881" fillId="0" borderId="881" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="882" fillId="0" borderId="882" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="883" fillId="0" borderId="883" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="884" fillId="0" borderId="884" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="885" fillId="0" borderId="885" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="886" fillId="0" borderId="886" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="887" fillId="0" borderId="887" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="888" fillId="0" borderId="888" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="889" fillId="0" borderId="889" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="890" fillId="0" borderId="890" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="891" fillId="0" borderId="891" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="892" fillId="0" borderId="892" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="893" fillId="0" borderId="893" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="894" fillId="0" borderId="894" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="895" fillId="0" borderId="895" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="896" fillId="0" borderId="896" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="897" fillId="0" borderId="897" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="898" fillId="0" borderId="898" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="899" fillId="0" borderId="899" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="900" fillId="0" borderId="900" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="901" fillId="0" borderId="901" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="902" fillId="0" borderId="902" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="903" fillId="0" borderId="903" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="904" fillId="0" borderId="904" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="905" fillId="0" borderId="905" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="906" fillId="0" borderId="906" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="907" fillId="0" borderId="907" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="908" fillId="0" borderId="908" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="909" fillId="0" borderId="909" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="910" fillId="0" borderId="910" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="911" fillId="0" borderId="911" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="912" fillId="0" borderId="912" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="913" fillId="0" borderId="913" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="914" fillId="0" borderId="914" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="915" fillId="0" borderId="915" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="916" fillId="0" borderId="916" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="917" fillId="0" borderId="917" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="918" fillId="0" borderId="918" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="919" fillId="0" borderId="919" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="920" fillId="0" borderId="920" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="921" fillId="0" borderId="921" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="922" fillId="0" borderId="922" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="923" fillId="0" borderId="923" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="924" fillId="0" borderId="924" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="925" fillId="0" borderId="925" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="926" fillId="0" borderId="926" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="927" fillId="0" borderId="927" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="928" fillId="0" borderId="928" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="929" fillId="0" borderId="929" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="930" fillId="0" borderId="930" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="931" fillId="0" borderId="931" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="932" fillId="0" borderId="932" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="933" fillId="0" borderId="933" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="934" fillId="0" borderId="934" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="935" fillId="0" borderId="935" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="936" fillId="0" borderId="936" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="937" fillId="0" borderId="937" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="938" fillId="0" borderId="938" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="939" fillId="0" borderId="939" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="940" fillId="0" borderId="940" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="941" fillId="0" borderId="941" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="942" fillId="0" borderId="942" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="943" fillId="0" borderId="943" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="944" fillId="0" borderId="944" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="945" fillId="0" borderId="945" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="946" fillId="0" borderId="946" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="947" fillId="0" borderId="947" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="948" fillId="0" borderId="948" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="949" fillId="0" borderId="949" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="950" fillId="0" borderId="950" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="951" fillId="0" borderId="951" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="952" fillId="0" borderId="952" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="953" fillId="0" borderId="953" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="954" fillId="0" borderId="954" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="955" fillId="0" borderId="955" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="956" fillId="0" borderId="956" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="957" fillId="0" borderId="957" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="958" fillId="0" borderId="958" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="959" fillId="0" borderId="959" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="960" fillId="0" borderId="960" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="961" fillId="0" borderId="961" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="962" fillId="0" borderId="962" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="963" fillId="0" borderId="963" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="964" fillId="0" borderId="964" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="965" fillId="0" borderId="965" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="966" fillId="0" borderId="966" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="967" fillId="0" borderId="967" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="968" fillId="0" borderId="968" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="969" fillId="0" borderId="969" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="970" fillId="0" borderId="970" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="971" fillId="0" borderId="971" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="972" fillId="0" borderId="972" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="973" fillId="0" borderId="973" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="974" fillId="0" borderId="974" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="975" fillId="0" borderId="975" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="976" fillId="0" borderId="976" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="977" fillId="0" borderId="977" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="978" fillId="0" borderId="978" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="979" fillId="0" borderId="979" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="980" fillId="0" borderId="980" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="981" fillId="0" borderId="981" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="982" fillId="0" borderId="982" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="983" fillId="0" borderId="983" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="984" fillId="0" borderId="984" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="985" fillId="0" borderId="985" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11933,258 +14894,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="593"/>
-      <c r="B1" s="600" t="s">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="790"/>
+      <c r="B2" s="797" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="601" t="s">
+      <c r="C2" s="798" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="602" t="s">
+      <c r="D2" s="799" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="603"/>
-      <c r="B2" s="605" t="s">
+    <row r="3">
+      <c r="A3" s="800"/>
+      <c r="B3" s="802" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="607" t="s">
+      <c r="C3" s="804" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="609" t="s">
+      <c r="D3" s="806" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="613" t="s">
+    <row r="4">
+      <c r="A4" s="810" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="614"/>
-      <c r="C3" s="615"/>
-      <c r="D3" s="616"/>
+      <c r="B4" s="811"/>
+      <c r="C4" s="812"/>
+      <c r="D4" s="813"/>
     </row>
-    <row r="4">
-      <c r="A4" s="619" t="s">
+    <row r="5">
+      <c r="A5" s="816" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="622">
-        <v>2.3407539137702953</v>
+      <c r="B5" s="819">
+        <v>2.3407539137702948</v>
       </c>
-      <c r="C4" s="625">
-        <v>2.2705676813340205</v>
+      <c r="C5" s="822">
+        <v>2.2705676813340201</v>
       </c>
-      <c r="D4" s="628">
-        <v>2.4132437278433998</v>
+      <c r="D5" s="825">
+        <v>2.4132437278433994</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="631" t="s">
+    <row r="6">
+      <c r="A6" s="828" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="634">
+      <c r="B6" s="831">
         <v>1.3867046413204847</v>
       </c>
-      <c r="C5" s="637">
+      <c r="C6" s="834">
         <v>1.3327717601277811</v>
       </c>
-      <c r="D5" s="640">
+      <c r="D6" s="837">
         <v>1.4427624809922859</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="643" t="s">
+    <row r="7">
+      <c r="A7" s="840" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="646">
-        <v>1.3165680098281831</v>
+      <c r="B7" s="843">
+        <v>1.3165680098281833</v>
       </c>
-      <c r="C6" s="649">
-        <v>1.168093247432048</v>
+      <c r="C7" s="846">
+        <v>1.1680932474320482</v>
       </c>
-      <c r="D6" s="652">
-        <v>1.4846767606349518</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="655" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="658">
-        <v>1.6692254270911586</v>
-      </c>
-      <c r="C7" s="661">
-        <v>1.4902994618016974</v>
-      </c>
-      <c r="D7" s="664">
-        <v>1.8711110167366705</v>
+      <c r="D7" s="849">
+        <v>1.4846767606349523</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="667" t="s">
-        <v>9</v>
+      <c r="A8" s="852" t="s">
+        <v>8</v>
       </c>
-      <c r="B8" s="670">
-        <v>1.8081096199821651</v>
+      <c r="B8" s="855">
+        <v>1.6692254270911595</v>
       </c>
-      <c r="C8" s="673">
-        <v>1.6176977684324727</v>
+      <c r="C8" s="858">
+        <v>1.490299461801698</v>
       </c>
-      <c r="D8" s="676">
-        <v>2.0227431073822548</v>
+      <c r="D8" s="861">
+        <v>1.8711110167366714</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="679" t="s">
-        <v>10</v>
+      <c r="A9" s="864" t="s">
+        <v>9</v>
       </c>
-      <c r="B9" s="682">
-        <v>1.9709534998376379</v>
+      <c r="B9" s="867">
+        <v>1.8081096199821654</v>
       </c>
-      <c r="C9" s="685">
-        <v>1.7676928624303114</v>
+      <c r="C9" s="870">
+        <v>1.6176977684324729</v>
       </c>
-      <c r="D9" s="688">
-        <v>2.1998577583626204</v>
+      <c r="D9" s="873">
+        <v>2.0227431073822491</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="691" t="s">
-        <v>11</v>
+      <c r="A10" s="876" t="s">
+        <v>10</v>
       </c>
-      <c r="B10" s="694">
-        <v>1.6733171230469643</v>
+      <c r="B10" s="879">
+        <v>1.9709534998376386</v>
       </c>
-      <c r="C10" s="697">
-        <v>1.496599376953748</v>
+      <c r="C10" s="882">
+        <v>1.7676928624303121</v>
       </c>
-      <c r="D10" s="700">
-        <v>1.8727246899102901</v>
+      <c r="D10" s="885">
+        <v>2.1998577583626213</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="703" t="s">
-        <v>12</v>
+      <c r="A11" s="888" t="s">
+        <v>11</v>
       </c>
-      <c r="B11" s="706">
-        <v>1.6050782034078421</v>
+      <c r="B11" s="891">
+        <v>1.673317123046965</v>
       </c>
-      <c r="C11" s="709">
-        <v>1.4349401920608877</v>
+      <c r="C11" s="894">
+        <v>1.4965993769537485</v>
       </c>
-      <c r="D11" s="712">
-        <v>1.797180931271132</v>
+      <c r="D11" s="897">
+        <v>1.8727246899102907</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="715" t="s">
+      <c r="A12" s="900" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="903">
+        <v>1.605078203407843</v>
+      </c>
+      <c r="C12" s="906">
+        <v>1.4349401920608886</v>
+      </c>
+      <c r="D12" s="909">
+        <v>1.7971809312711331</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="912" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="718">
+      <c r="B13" s="915">
         <v>1.1218448087865345</v>
       </c>
-      <c r="C12" s="721">
+      <c r="C13" s="918">
         <v>1.0480091877914155</v>
       </c>
-      <c r="D12" s="724">
+      <c r="D13" s="921">
         <v>1.2009738497846674</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="727" t="s">
+    <row r="14">
+      <c r="A14" s="924" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="730">
+      <c r="B14" s="927">
         <v>1.1163761218615247</v>
       </c>
-      <c r="C13" s="733">
+      <c r="C14" s="930">
         <v>1.0432519670996161</v>
       </c>
-      <c r="D13" s="736">
+      <c r="D14" s="933">
         <v>1.1947449351512005</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="739" t="s">
+    <row r="15">
+      <c r="A15" s="936" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="742">
-        <v>1.2479947130160669</v>
+      <c r="B15" s="939">
+        <v>1.2479947130160671</v>
       </c>
-      <c r="C14" s="745">
+      <c r="C15" s="942">
         <v>1.1685806261517329</v>
       </c>
-      <c r="D14" s="748">
-        <v>1.3330083387387286</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="751" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="754">
-        <v>1.2644801751211008</v>
-      </c>
-      <c r="C15" s="757">
-        <v>1.1849214910627521</v>
-      </c>
-      <c r="D15" s="760">
-        <v>1.3496398727045049</v>
+      <c r="D15" s="945">
+        <v>1.3330083387387288</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="763" t="s">
-        <v>11</v>
+      <c r="A16" s="948" t="s">
+        <v>10</v>
       </c>
-      <c r="B16" s="766">
-        <v>1.1587713458993225</v>
+      <c r="B16" s="951">
+        <v>1.264480175121101</v>
       </c>
-      <c r="C16" s="769">
-        <v>1.0845664907180968</v>
+      <c r="C16" s="954">
+        <v>1.1849214910627524</v>
       </c>
-      <c r="D16" s="772">
-        <v>1.2382681988900976</v>
+      <c r="D16" s="957">
+        <v>1.3496398727045051</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="776" t="s">
-        <v>12</v>
+      <c r="A17" s="960" t="s">
+        <v>11</v>
       </c>
-      <c r="B17" s="780">
-        <v>1.2177088098251889</v>
+      <c r="B17" s="963">
+        <v>1.1587713458993227</v>
       </c>
-      <c r="C17" s="784">
-        <v>1.1411189252188252</v>
+      <c r="C17" s="966">
+        <v>1.084566490718097</v>
       </c>
-      <c r="D17" s="788">
-        <v>1.299724907275901</v>
+      <c r="D17" s="969">
+        <v>1.2382681988900979</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>13</v>
+      <c r="A18" s="973" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="977">
+        <v>1.2177088098251889</v>
+      </c>
+      <c r="C18" s="981">
+        <v>1.1411189252188252</v>
+      </c>
+      <c r="D18" s="985">
+        <v>1.299724907275901</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
 </worksheet>
 </file>